--- a/Salida/Resultado1.xlsx
+++ b/Salida/Resultado1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>STATUS</t>
   </si>
@@ -50,6 +50,12 @@
     <t>Line 1</t>
   </si>
   <si>
+    <t>Line 2</t>
+  </si>
+  <si>
+    <t>Line 3</t>
+  </si>
+  <si>
     <t>Bus type</t>
   </si>
   <si>
@@ -80,21 +86,33 @@
     <t>%P</t>
   </si>
   <si>
-    <t>Bus 1</t>
-  </si>
-  <si>
-    <t>Bus 2</t>
+    <t>Barra 1</t>
+  </si>
+  <si>
+    <t>Barra 2</t>
   </si>
   <si>
     <t>Bolivar</t>
   </si>
   <si>
+    <t>Barra 4</t>
+  </si>
+  <si>
+    <t>Maturin</t>
+  </si>
+  <si>
+    <t>Barra 6</t>
+  </si>
+  <si>
     <t>SL</t>
   </si>
   <si>
     <t>PQ</t>
   </si>
   <si>
+    <t>PV</t>
+  </si>
+  <si>
     <t>Xcc (pu)</t>
   </si>
   <si>
@@ -117,6 +135,21 @@
   </si>
   <si>
     <t>TRX 5</t>
+  </si>
+  <si>
+    <t>TRX 6</t>
+  </si>
+  <si>
+    <t>TRX 7</t>
+  </si>
+  <si>
+    <t>TRX 8</t>
+  </si>
+  <si>
+    <t>TRX 9</t>
+  </si>
+  <si>
+    <t>TRX 10</t>
   </si>
   <si>
     <t>X (pu)</t>
@@ -534,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,6 +619,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0.005146875</v>
+      </c>
+      <c r="F3">
+        <v>0.06797250000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0.005146875</v>
+      </c>
+      <c r="F4">
+        <v>0.06797250000000001</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,34 +689,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -645,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1.05</v>
@@ -686,13 +765,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -727,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -761,6 +840,129 @@
       </c>
       <c r="M4">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4.5</v>
+      </c>
+      <c r="J6">
+        <v>2.17</v>
+      </c>
+      <c r="K6">
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>0.05</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +972,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,13 +992,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -804,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -827,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -850,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -873,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -896,7 +1098,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -912,6 +1114,121 @@
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.1004158790170132</v>
+      </c>
+      <c r="F7">
+        <v>1.02</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.1004158790170132</v>
+      </c>
+      <c r="F8">
+        <v>1.02</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0.1004158790170132</v>
+      </c>
+      <c r="F9">
+        <v>1.02</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0.1002666666666667</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0.1002666666666667</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,16 +1276,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D1">
-        <v>9.892829782432674E-05</v>
+        <v>0.001969740022560165</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -976,33 +1293,33 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1.05</v>
@@ -1011,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.7627</v>
+        <v>2.1946</v>
       </c>
       <c r="E3">
-        <v>1.4852</v>
+        <v>1.7397</v>
       </c>
       <c r="F3">
-        <v>1.7627</v>
+        <v>2.1946</v>
       </c>
       <c r="G3">
-        <v>1.4852</v>
+        <v>1.7397</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1031,13 +1348,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>1.0196</v>
+        <v>1.0146</v>
       </c>
       <c r="C4">
-        <v>-2.0759</v>
+        <v>-2.5976</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1060,19 +1377,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>1.001</v>
+        <v>1.0023</v>
       </c>
       <c r="C5">
-        <v>-3.2519</v>
+        <v>-3.3819</v>
       </c>
       <c r="D5">
-        <v>-1.7643</v>
+        <v>-1.1756</v>
       </c>
       <c r="E5">
-        <v>-1.3233</v>
+        <v>-0.8817</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1081,10 +1398,97 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.7643</v>
+        <v>1.1756</v>
       </c>
       <c r="I5">
-        <v>1.3233</v>
+        <v>0.8817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.9905</v>
+      </c>
+      <c r="C6">
+        <v>-4.336</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.9516</v>
+      </c>
+      <c r="C7">
+        <v>-6.1043</v>
+      </c>
+      <c r="D7">
+        <v>-2.8281</v>
+      </c>
+      <c r="E7">
+        <v>-1.3638</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.8281</v>
+      </c>
+      <c r="I7">
+        <v>1.3638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-0.0624</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.0711</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.0711</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1111,27 +1515,27 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1140,27 +1544,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.3525</v>
+        <v>0.4389</v>
       </c>
       <c r="E2">
-        <v>0.297</v>
+        <v>0.3479</v>
       </c>
       <c r="F2">
-        <v>-0.3525</v>
+        <v>-0.4389</v>
       </c>
       <c r="G2">
-        <v>-0.2758</v>
+        <v>-0.3166</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0212</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1169,27 +1573,27 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.3525</v>
+        <v>0.4389</v>
       </c>
       <c r="E3">
-        <v>0.297</v>
+        <v>0.3479</v>
       </c>
       <c r="F3">
-        <v>-0.3525</v>
+        <v>-0.4389</v>
       </c>
       <c r="G3">
-        <v>-0.2758</v>
+        <v>-0.3166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0212</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1198,27 +1602,27 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.3525</v>
+        <v>0.4389</v>
       </c>
       <c r="E4">
-        <v>0.297</v>
+        <v>0.3479</v>
       </c>
       <c r="F4">
-        <v>-0.3525</v>
+        <v>-0.4389</v>
       </c>
       <c r="G4">
-        <v>-0.2758</v>
+        <v>-0.3166</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0212</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1227,27 +1631,27 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.3525</v>
+        <v>0.4389</v>
       </c>
       <c r="E5">
-        <v>0.297</v>
+        <v>0.3479</v>
       </c>
       <c r="F5">
-        <v>-0.3525</v>
+        <v>-0.4389</v>
       </c>
       <c r="G5">
-        <v>-0.2758</v>
+        <v>-0.3166</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0212</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1256,22 +1660,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.3525</v>
+        <v>0.4389</v>
       </c>
       <c r="E6">
-        <v>0.297</v>
+        <v>0.3479</v>
       </c>
       <c r="F6">
-        <v>-0.3525</v>
+        <v>-0.4389</v>
       </c>
       <c r="G6">
-        <v>-0.2758</v>
+        <v>-0.3166</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0212</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1285,22 +1689,225 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1.7689</v>
+        <v>1.1746</v>
       </c>
       <c r="E7">
-        <v>1.3842</v>
+        <v>0.9072</v>
       </c>
       <c r="F7">
-        <v>-1.7643</v>
+        <v>-1.1726</v>
       </c>
       <c r="G7">
-        <v>-1.3231</v>
+        <v>-0.8803</v>
       </c>
       <c r="H7">
-        <v>0.0046</v>
+        <v>0.002</v>
       </c>
       <c r="I7">
-        <v>0.0611</v>
+        <v>0.0269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.4735</v>
+      </c>
+      <c r="E8">
+        <v>0.3306</v>
+      </c>
+      <c r="F8">
+        <v>-0.4719</v>
+      </c>
+      <c r="G8">
+        <v>-0.3086</v>
+      </c>
+      <c r="H8">
+        <v>0.0016</v>
+      </c>
+      <c r="I8">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.4735</v>
+      </c>
+      <c r="E9">
+        <v>0.3306</v>
+      </c>
+      <c r="F9">
+        <v>-0.4719</v>
+      </c>
+      <c r="G9">
+        <v>-0.3086</v>
+      </c>
+      <c r="H9">
+        <v>0.0016</v>
+      </c>
+      <c r="I9">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.3013</v>
+      </c>
+      <c r="E10">
+        <v>0.2046</v>
+      </c>
+      <c r="F10">
+        <v>-0.3013</v>
+      </c>
+      <c r="G10">
+        <v>-0.1913</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.3013</v>
+      </c>
+      <c r="E11">
+        <v>0.2046</v>
+      </c>
+      <c r="F11">
+        <v>-0.3013</v>
+      </c>
+      <c r="G11">
+        <v>-0.1913</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0.3013</v>
+      </c>
+      <c r="E12">
+        <v>0.2046</v>
+      </c>
+      <c r="F12">
+        <v>-0.3013</v>
+      </c>
+      <c r="G12">
+        <v>-0.1913</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-0.9989</v>
+      </c>
+      <c r="E13">
+        <v>-0.4067</v>
+      </c>
+      <c r="F13">
+        <v>0.9989</v>
+      </c>
+      <c r="G13">
+        <v>0.5355</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.1288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-0.9989</v>
+      </c>
+      <c r="E14">
+        <v>-0.4067</v>
+      </c>
+      <c r="F14">
+        <v>0.9989</v>
+      </c>
+      <c r="G14">
+        <v>0.5355</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.1288</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,16 +1925,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D1">
-        <v>9.724753077691023E-05</v>
+        <v>0.001775649922425598</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1335,33 +1942,33 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1.05</v>
@@ -1370,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.7471</v>
+        <v>2.0343</v>
       </c>
       <c r="E3">
-        <v>1.4704</v>
+        <v>1.7096</v>
       </c>
       <c r="F3">
-        <v>1.7471</v>
+        <v>2.0343</v>
       </c>
       <c r="G3">
-        <v>1.4704</v>
+        <v>1.7096</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1390,13 +1997,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>1.0198</v>
+        <v>1.0151</v>
       </c>
       <c r="C4">
-        <v>-2.057</v>
+        <v>-2.4066</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1419,19 +2026,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>1.0016</v>
+        <v>1.0026</v>
       </c>
       <c r="C5">
-        <v>-3.2176</v>
+        <v>-3.2016</v>
       </c>
       <c r="D5">
-        <v>-1.7454</v>
+        <v>-1.1924</v>
       </c>
       <c r="E5">
-        <v>-1.3091</v>
+        <v>-0.8943</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1440,10 +2047,97 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.7454</v>
+        <v>1.1924</v>
       </c>
       <c r="I5">
-        <v>1.3091</v>
+        <v>0.8943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.9916</v>
+      </c>
+      <c r="C6">
+        <v>-3.9431</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.9524</v>
+      </c>
+      <c r="C7">
+        <v>-5.6197</v>
+      </c>
+      <c r="D7">
+        <v>-2.8202</v>
+      </c>
+      <c r="E7">
+        <v>-1.3599</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.8202</v>
+      </c>
+      <c r="I7">
+        <v>1.3599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.4263</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.0554</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.0554</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1470,22 +2164,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1499,27 +2193,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.3494</v>
+        <v>0.4069</v>
       </c>
       <c r="E2">
-        <v>0.2941</v>
+        <v>0.3419</v>
       </c>
       <c r="F2">
-        <v>-0.3494</v>
+        <v>-0.4069</v>
       </c>
       <c r="G2">
-        <v>-0.2733</v>
+        <v>-0.3137</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02079999999999999</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1528,27 +2222,27 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.3494</v>
+        <v>0.4069</v>
       </c>
       <c r="E3">
-        <v>0.2941</v>
+        <v>0.3419</v>
       </c>
       <c r="F3">
-        <v>-0.3494</v>
+        <v>-0.4069</v>
       </c>
       <c r="G3">
-        <v>-0.2733</v>
+        <v>-0.3137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02079999999999999</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1557,27 +2251,27 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.3494</v>
+        <v>0.4069</v>
       </c>
       <c r="E4">
-        <v>0.2941</v>
+        <v>0.3419</v>
       </c>
       <c r="F4">
-        <v>-0.3494</v>
+        <v>-0.4069</v>
       </c>
       <c r="G4">
-        <v>-0.2733</v>
+        <v>-0.3137</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02079999999999999</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1586,27 +2280,27 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.3494</v>
+        <v>0.4069</v>
       </c>
       <c r="E5">
-        <v>0.2941</v>
+        <v>0.3419</v>
       </c>
       <c r="F5">
-        <v>-0.3494</v>
+        <v>-0.4069</v>
       </c>
       <c r="G5">
-        <v>-0.2733</v>
+        <v>-0.3137</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02079999999999999</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1615,22 +2309,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.3494</v>
+        <v>0.4069</v>
       </c>
       <c r="E6">
-        <v>0.2941</v>
+        <v>0.3419</v>
       </c>
       <c r="F6">
-        <v>-0.3494</v>
+        <v>-0.4069</v>
       </c>
       <c r="G6">
-        <v>-0.2733</v>
+        <v>-0.3137</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02079999999999999</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1644,22 +2338,225 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1.747</v>
+        <v>1.1915</v>
       </c>
       <c r="E7">
-        <v>1.3664</v>
+        <v>0.9196</v>
       </c>
       <c r="F7">
-        <v>-1.7425</v>
+        <v>-1.1894</v>
       </c>
       <c r="G7">
-        <v>-1.3069</v>
+        <v>-0.892</v>
       </c>
       <c r="H7">
-        <v>0.004500000000000171</v>
+        <v>0.002099999999999991</v>
       </c>
       <c r="I7">
-        <v>0.05950000000000011</v>
+        <v>0.02759999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.4216</v>
+      </c>
+      <c r="E8">
+        <v>0.324</v>
+      </c>
+      <c r="F8">
+        <v>-0.4202</v>
+      </c>
+      <c r="G8">
+        <v>-0.3053</v>
+      </c>
+      <c r="H8">
+        <v>0.001399999999999957</v>
+      </c>
+      <c r="I8">
+        <v>0.01869999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.4216</v>
+      </c>
+      <c r="E9">
+        <v>0.324</v>
+      </c>
+      <c r="F9">
+        <v>-0.4202</v>
+      </c>
+      <c r="G9">
+        <v>-0.3053</v>
+      </c>
+      <c r="H9">
+        <v>0.001399999999999957</v>
+      </c>
+      <c r="I9">
+        <v>0.01869999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.2863</v>
+      </c>
+      <c r="E10">
+        <v>0.2073</v>
+      </c>
+      <c r="F10">
+        <v>-0.2863</v>
+      </c>
+      <c r="G10">
+        <v>-0.1948</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.01250000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.2863</v>
+      </c>
+      <c r="E11">
+        <v>0.2073</v>
+      </c>
+      <c r="F11">
+        <v>-0.2863</v>
+      </c>
+      <c r="G11">
+        <v>-0.1948</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.01250000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0.2863</v>
+      </c>
+      <c r="E12">
+        <v>0.2073</v>
+      </c>
+      <c r="F12">
+        <v>-0.2863</v>
+      </c>
+      <c r="G12">
+        <v>-0.1948</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.01250000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-1.0005</v>
+      </c>
+      <c r="E13">
+        <v>-0.3994</v>
+      </c>
+      <c r="F13">
+        <v>1.0005</v>
+      </c>
+      <c r="G13">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.1283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-1.0005</v>
+      </c>
+      <c r="E14">
+        <v>-0.3994</v>
+      </c>
+      <c r="F14">
+        <v>1.0005</v>
+      </c>
+      <c r="G14">
+        <v>0.5276999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.1283</v>
       </c>
     </row>
   </sheetData>

--- a/Salida/Resultado1.xlsx
+++ b/Salida/Resultado1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>STATUS</t>
   </si>
@@ -56,6 +56,24 @@
     <t>Line 3</t>
   </si>
   <si>
+    <t>Line 4</t>
+  </si>
+  <si>
+    <t>Line 5</t>
+  </si>
+  <si>
+    <t>Line 6</t>
+  </si>
+  <si>
+    <t>Line 7</t>
+  </si>
+  <si>
+    <t>Line 8</t>
+  </si>
+  <si>
+    <t>Line 9</t>
+  </si>
+  <si>
     <t>Bus type</t>
   </si>
   <si>
@@ -104,6 +122,24 @@
     <t>Barra 6</t>
   </si>
   <si>
+    <t>Barra 7</t>
+  </si>
+  <si>
+    <t>Barra 8</t>
+  </si>
+  <si>
+    <t>Barra 9</t>
+  </si>
+  <si>
+    <t>Barra 10</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Barra 12</t>
+  </si>
+  <si>
     <t>SL</t>
   </si>
   <si>
@@ -150,6 +186,33 @@
   </si>
   <si>
     <t>TRX 10</t>
+  </si>
+  <si>
+    <t>TRX 11</t>
+  </si>
+  <si>
+    <t>TRX 12</t>
+  </si>
+  <si>
+    <t>TRX 13</t>
+  </si>
+  <si>
+    <t>TRX 14</t>
+  </si>
+  <si>
+    <t>TRX 15</t>
+  </si>
+  <si>
+    <t>TRX 16</t>
+  </si>
+  <si>
+    <t>TRX 17</t>
+  </si>
+  <si>
+    <t>TRX 18</t>
+  </si>
+  <si>
+    <t>TRX 19</t>
   </si>
   <si>
     <t>X (pu)</t>
@@ -567,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,6 +728,144 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0.0004772523388440343</v>
+      </c>
+      <c r="F5">
+        <v>0.01109692853176129</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0.0004772523388440343</v>
+      </c>
+      <c r="F6">
+        <v>0.01109692853176129</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0.0004772523388440343</v>
+      </c>
+      <c r="F7">
+        <v>0.01109692853176129</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0.0004772523388440343</v>
+      </c>
+      <c r="F8">
+        <v>0.01109692853176129</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.0004571575035242855</v>
+      </c>
+      <c r="F9">
+        <v>0.01062968943568713</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.0004571575035242855</v>
+      </c>
+      <c r="F10">
+        <v>0.01062968943568713</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -672,7 +873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,34 +890,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -724,13 +925,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>1.05</v>
@@ -765,13 +966,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -806,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -847,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -888,13 +1089,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -929,13 +1130,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -944,24 +1145,270 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>7.2648</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+      <c r="L12">
+        <v>0.05</v>
+      </c>
+      <c r="M12">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -972,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1006,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1029,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1052,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1075,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1098,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1121,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1144,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1167,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1190,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1213,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1229,6 +1676,213 @@
       </c>
       <c r="G11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0.01012666666666667</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0.01012666666666667</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0.01579</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0.01579</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0.01579</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0.01579</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0.01579</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0.1462</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0.1462</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1267,236 +1921,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <v>0.001969740022560165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2.1946</v>
-      </c>
-      <c r="E3">
-        <v>1.7397</v>
-      </c>
-      <c r="F3">
-        <v>2.1946</v>
-      </c>
-      <c r="G3">
-        <v>1.7397</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>1.0146</v>
-      </c>
-      <c r="C4">
-        <v>-2.5976</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>1.0023</v>
-      </c>
-      <c r="C5">
-        <v>-3.3819</v>
-      </c>
-      <c r="D5">
-        <v>-1.1756</v>
-      </c>
-      <c r="E5">
-        <v>-0.8817</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1.1756</v>
-      </c>
-      <c r="I5">
-        <v>0.8817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.9905</v>
-      </c>
-      <c r="C6">
-        <v>-4.336</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.9516</v>
-      </c>
-      <c r="C7">
-        <v>-6.1043</v>
-      </c>
-      <c r="D7">
-        <v>-2.8281</v>
-      </c>
-      <c r="E7">
-        <v>-1.3638</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2.8281</v>
-      </c>
-      <c r="I7">
-        <v>1.3638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-0.0624</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1.0711</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.0711</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -1505,8 +1929,412 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1">
+        <v>0.003634438271319054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.439</v>
+      </c>
+      <c r="E3">
+        <v>3.0833</v>
+      </c>
+      <c r="F3">
+        <v>3.439</v>
+      </c>
+      <c r="G3">
+        <v>3.0833</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.988</v>
+      </c>
+      <c r="C4">
+        <v>-4.1822</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>0.9843</v>
+      </c>
+      <c r="C5">
+        <v>-4.4252</v>
+      </c>
+      <c r="D5">
+        <v>-0.3423</v>
+      </c>
+      <c r="E5">
+        <v>-0.2567</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.3423</v>
+      </c>
+      <c r="I5">
+        <v>0.2567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0.9737</v>
+      </c>
+      <c r="C6">
+        <v>-4.7333</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0.9424</v>
+      </c>
+      <c r="C7">
+        <v>-5.142</v>
+      </c>
+      <c r="D7">
+        <v>-2.6087</v>
+      </c>
+      <c r="E7">
+        <v>-1.258</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.6087</v>
+      </c>
+      <c r="I7">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2.4861</v>
+      </c>
+      <c r="D8">
+        <v>2.4954</v>
+      </c>
+      <c r="E8">
+        <v>1.3148</v>
+      </c>
+      <c r="F8">
+        <v>2.4954</v>
+      </c>
+      <c r="G8">
+        <v>1.3148</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0.9796</v>
+      </c>
+      <c r="C9">
+        <v>-4.8177</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0.9713000000000001</v>
+      </c>
+      <c r="C10">
+        <v>-5.3543</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0.9646</v>
+      </c>
+      <c r="C11">
+        <v>-5.7304</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0.9599</v>
+      </c>
+      <c r="C12">
+        <v>-5.9083</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0.9587</v>
+      </c>
+      <c r="C13">
+        <v>-5.8263</v>
+      </c>
+      <c r="D13">
+        <v>-1.4989</v>
+      </c>
+      <c r="E13">
+        <v>-0.7259</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1.4989</v>
+      </c>
+      <c r="I13">
+        <v>0.7259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.9356</v>
+      </c>
+      <c r="D14">
+        <v>1.9977</v>
+      </c>
+      <c r="E14">
+        <v>0.7183</v>
+      </c>
+      <c r="F14">
+        <v>1.9977</v>
+      </c>
+      <c r="G14">
+        <v>0.7183</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1515,27 +2343,27 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1544,27 +2372,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.4389</v>
+        <v>0.6878</v>
       </c>
       <c r="E2">
-        <v>0.3479</v>
+        <v>0.6167</v>
       </c>
       <c r="F2">
-        <v>-0.4389</v>
+        <v>-0.6878</v>
       </c>
       <c r="G2">
-        <v>-0.3166</v>
+        <v>-0.5315</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0313</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1573,27 +2401,27 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.4389</v>
+        <v>0.6878</v>
       </c>
       <c r="E3">
-        <v>0.3479</v>
+        <v>0.6167</v>
       </c>
       <c r="F3">
-        <v>-0.4389</v>
+        <v>-0.6878</v>
       </c>
       <c r="G3">
-        <v>-0.3166</v>
+        <v>-0.5315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0313</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1602,27 +2430,27 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.4389</v>
+        <v>0.6878</v>
       </c>
       <c r="E4">
-        <v>0.3479</v>
+        <v>0.6167</v>
       </c>
       <c r="F4">
-        <v>-0.4389</v>
+        <v>-0.6878</v>
       </c>
       <c r="G4">
-        <v>-0.3166</v>
+        <v>-0.5315</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0313</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1631,27 +2459,27 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.4389</v>
+        <v>0.6878</v>
       </c>
       <c r="E5">
-        <v>0.3479</v>
+        <v>0.6167</v>
       </c>
       <c r="F5">
-        <v>-0.4389</v>
+        <v>-0.6878</v>
       </c>
       <c r="G5">
-        <v>-0.3166</v>
+        <v>-0.5315</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0313</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1660,22 +2488,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.4389</v>
+        <v>0.6878</v>
       </c>
       <c r="E6">
-        <v>0.3479</v>
+        <v>0.6167</v>
       </c>
       <c r="F6">
-        <v>-0.4389</v>
+        <v>-0.6878</v>
       </c>
       <c r="G6">
-        <v>-0.3166</v>
+        <v>-0.5315</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0313</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1689,22 +2517,22 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1.1746</v>
+        <v>0.3478</v>
       </c>
       <c r="E7">
-        <v>0.9072</v>
+        <v>0.2642</v>
       </c>
       <c r="F7">
-        <v>-1.1726</v>
+        <v>-0.3476</v>
       </c>
       <c r="G7">
-        <v>-0.8803</v>
+        <v>-0.2618</v>
       </c>
       <c r="H7">
-        <v>0.002</v>
+        <v>0.0002</v>
       </c>
       <c r="I7">
-        <v>0.0269</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1718,22 +2546,22 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.4735</v>
+        <v>0.1511</v>
       </c>
       <c r="E8">
-        <v>0.3306</v>
+        <v>0.1981</v>
       </c>
       <c r="F8">
-        <v>-0.4719</v>
+        <v>-0.1508</v>
       </c>
       <c r="G8">
-        <v>-0.3086</v>
+        <v>-0.1938</v>
       </c>
       <c r="H8">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="I8">
-        <v>0.022</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1747,27 +2575,27 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0.4735</v>
+        <v>0.1511</v>
       </c>
       <c r="E9">
-        <v>0.3306</v>
+        <v>0.1981</v>
       </c>
       <c r="F9">
-        <v>-0.4719</v>
+        <v>-0.1508</v>
       </c>
       <c r="G9">
-        <v>-0.3086</v>
+        <v>-0.1938</v>
       </c>
       <c r="H9">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="I9">
-        <v>0.022</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1776,27 +2604,27 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.3013</v>
+        <v>0.0678</v>
       </c>
       <c r="E10">
-        <v>0.2046</v>
+        <v>0.1227</v>
       </c>
       <c r="F10">
-        <v>-0.3013</v>
+        <v>-0.0678</v>
       </c>
       <c r="G10">
-        <v>-0.1913</v>
+        <v>-0.1207</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0133</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1805,27 +2633,27 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.3013</v>
+        <v>0.0678</v>
       </c>
       <c r="E11">
-        <v>0.2046</v>
+        <v>0.1227</v>
       </c>
       <c r="F11">
-        <v>-0.3013</v>
+        <v>-0.0678</v>
       </c>
       <c r="G11">
-        <v>-0.1913</v>
+        <v>-0.1207</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0133</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1834,27 +2662,27 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.3013</v>
+        <v>0.0678</v>
       </c>
       <c r="E12">
-        <v>0.2046</v>
+        <v>0.1227</v>
       </c>
       <c r="F12">
-        <v>-0.3013</v>
+        <v>-0.0678</v>
       </c>
       <c r="G12">
-        <v>-0.1913</v>
+        <v>-0.1207</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0133</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1863,27 +2691,27 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-0.9989</v>
+        <v>-1.2477</v>
       </c>
       <c r="E13">
-        <v>-0.4067</v>
+        <v>-0.458</v>
       </c>
       <c r="F13">
-        <v>0.9989</v>
+        <v>1.2477</v>
       </c>
       <c r="G13">
-        <v>0.5355</v>
+        <v>0.6574</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1288</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1892,22 +2720,457 @@
         <v>6</v>
       </c>
       <c r="D14">
+        <v>-1.2477</v>
+      </c>
+      <c r="E14">
+        <v>-0.458</v>
+      </c>
+      <c r="F14">
+        <v>1.2477</v>
+      </c>
+      <c r="G14">
+        <v>0.6574</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.1994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0.833</v>
+      </c>
+      <c r="E15">
+        <v>0.6974</v>
+      </c>
+      <c r="F15">
+        <v>-0.8324</v>
+      </c>
+      <c r="G15">
+        <v>-0.6837</v>
+      </c>
+      <c r="H15">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0.833</v>
+      </c>
+      <c r="E16">
+        <v>0.6974</v>
+      </c>
+      <c r="F16">
+        <v>-0.8324</v>
+      </c>
+      <c r="G16">
+        <v>-0.6837</v>
+      </c>
+      <c r="H16">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>-1.0601</v>
+      </c>
+      <c r="E17">
+        <v>-0.8101</v>
+      </c>
+      <c r="F17">
+        <v>1.0601</v>
+      </c>
+      <c r="G17">
+        <v>0.8289</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.0188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>-1.0601</v>
+      </c>
+      <c r="E18">
+        <v>-0.8101</v>
+      </c>
+      <c r="F18">
+        <v>1.0601</v>
+      </c>
+      <c r="G18">
+        <v>0.8289</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.0188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0.5785</v>
+      </c>
+      <c r="E19">
+        <v>0.5622</v>
+      </c>
+      <c r="F19">
+        <v>-0.5782</v>
+      </c>
+      <c r="G19">
+        <v>-0.5546</v>
+      </c>
+      <c r="H19">
+        <v>0.0003</v>
+      </c>
+      <c r="I19">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0.5785</v>
+      </c>
+      <c r="E20">
+        <v>0.5622</v>
+      </c>
+      <c r="F20">
+        <v>-0.5782</v>
+      </c>
+      <c r="G20">
+        <v>-0.5546</v>
+      </c>
+      <c r="H20">
+        <v>0.0003</v>
+      </c>
+      <c r="I20">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.2886</v>
+      </c>
+      <c r="E21">
+        <v>0.4227</v>
+      </c>
+      <c r="F21">
+        <v>-0.2885</v>
+      </c>
+      <c r="G21">
+        <v>-0.4197</v>
+      </c>
+      <c r="H21">
+        <v>0.0001</v>
+      </c>
+      <c r="I21">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0.2886</v>
+      </c>
+      <c r="E22">
+        <v>0.4227</v>
+      </c>
+      <c r="F22">
+        <v>-0.2885</v>
+      </c>
+      <c r="G22">
+        <v>-0.4197</v>
+      </c>
+      <c r="H22">
+        <v>0.0001</v>
+      </c>
+      <c r="I22">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.0835</v>
+      </c>
+      <c r="E23">
+        <v>-0.07140000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-0.0835</v>
+      </c>
+      <c r="G23">
+        <v>0.0716</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.0835</v>
+      </c>
+      <c r="E24">
+        <v>-0.07140000000000001</v>
+      </c>
+      <c r="F24">
+        <v>-0.0835</v>
+      </c>
+      <c r="G24">
+        <v>0.0716</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.0835</v>
+      </c>
+      <c r="E25">
+        <v>-0.07140000000000001</v>
+      </c>
+      <c r="F25">
+        <v>-0.0835</v>
+      </c>
+      <c r="G25">
+        <v>0.0716</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0.0835</v>
+      </c>
+      <c r="E26">
+        <v>-0.07140000000000001</v>
+      </c>
+      <c r="F26">
+        <v>-0.0835</v>
+      </c>
+      <c r="G26">
+        <v>0.0716</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0.0835</v>
+      </c>
+      <c r="E27">
+        <v>-0.07140000000000001</v>
+      </c>
+      <c r="F27">
+        <v>-0.0835</v>
+      </c>
+      <c r="G27">
+        <v>0.0716</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
         <v>-0.9989</v>
       </c>
-      <c r="E14">
-        <v>-0.4067</v>
-      </c>
-      <c r="F14">
+      <c r="E28">
+        <v>-0.1944</v>
+      </c>
+      <c r="F28">
         <v>0.9989</v>
       </c>
-      <c r="G14">
-        <v>0.5355</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.1288</v>
+      <c r="G28">
+        <v>0.3592</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.1648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>-0.9989</v>
+      </c>
+      <c r="E29">
+        <v>-0.1944</v>
+      </c>
+      <c r="F29">
+        <v>0.9989</v>
+      </c>
+      <c r="G29">
+        <v>0.3592</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.1648</v>
       </c>
     </row>
   </sheetData>
@@ -1916,236 +3179,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <v>0.001775649922425598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2.0343</v>
-      </c>
-      <c r="E3">
-        <v>1.7096</v>
-      </c>
-      <c r="F3">
-        <v>2.0343</v>
-      </c>
-      <c r="G3">
-        <v>1.7096</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>1.0151</v>
-      </c>
-      <c r="C4">
-        <v>-2.4066</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>1.0026</v>
-      </c>
-      <c r="C5">
-        <v>-3.2016</v>
-      </c>
-      <c r="D5">
-        <v>-1.1924</v>
-      </c>
-      <c r="E5">
-        <v>-0.8943</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1.1924</v>
-      </c>
-      <c r="I5">
-        <v>0.8943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.9916</v>
-      </c>
-      <c r="C6">
-        <v>-3.9431</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.9524</v>
-      </c>
-      <c r="C7">
-        <v>-5.6197</v>
-      </c>
-      <c r="D7">
-        <v>-2.8202</v>
-      </c>
-      <c r="E7">
-        <v>-1.3599</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2.8202</v>
-      </c>
-      <c r="I7">
-        <v>1.3599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.4263</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1.0554</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.0554</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -2154,8 +3187,412 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1">
+        <v>5.994635514753023E+198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-3.432063347581699E+50</v>
+      </c>
+      <c r="E3">
+        <v>-1.216495525917187E+50</v>
+      </c>
+      <c r="F3">
+        <v>-3.432063347581699E+50</v>
+      </c>
+      <c r="G3">
+        <v>-1.216495525917187E+50</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>7.629348614006287E+48</v>
+      </c>
+      <c r="C4">
+        <v>8.183104743326554E+66</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>5.194235428442411E+65</v>
+      </c>
+      <c r="C5">
+        <v>2.031082800771641E+66</v>
+      </c>
+      <c r="D5">
+        <v>-5.907958248602709E+192</v>
+      </c>
+      <c r="E5">
+        <v>-4.431183521297435E+192</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5.907958248602709E+192</v>
+      </c>
+      <c r="I5">
+        <v>4.431183521297435E+192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>5.316712332856323E+67</v>
+      </c>
+      <c r="C6">
+        <v>-1.464697683116738E+66</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2.016549225586827E+67</v>
+      </c>
+      <c r="C7">
+        <v>-2.659730386625682E+67</v>
+      </c>
+      <c r="D7">
+        <v>-2.499331578455465E+197</v>
+      </c>
+      <c r="E7">
+        <v>-1.205233227832969E+197</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.499331578455465E+197</v>
+      </c>
+      <c r="I7">
+        <v>1.205233227832969E+197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-1.440555461213336E+68</v>
+      </c>
+      <c r="D8">
+        <v>-3.510245913176604E+68</v>
+      </c>
+      <c r="E8">
+        <v>-1.964090411633767E+68</v>
+      </c>
+      <c r="F8">
+        <v>-3.510245913176604E+68</v>
+      </c>
+      <c r="G8">
+        <v>-1.964090411633767E+68</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>5.426777302629674E+48</v>
+      </c>
+      <c r="C9">
+        <v>8.183104743326554E+66</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>3.718241820607286E+48</v>
+      </c>
+      <c r="C10">
+        <v>8.183104743326534E+66</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1.874054361137428E+48</v>
+      </c>
+      <c r="C11">
+        <v>8.183104743326533E+66</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>4.142624292412928E+33</v>
+      </c>
+      <c r="C12">
+        <v>8.183104743326546E+66</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>3.645220003385695E+33</v>
+      </c>
+      <c r="C13">
+        <v>8.183104743326531E+66</v>
+      </c>
+      <c r="D13">
+        <v>-6.06034476235992E+67</v>
+      </c>
+      <c r="E13">
+        <v>-2.935146175306156E+67</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6.06034476235992E+67</v>
+      </c>
+      <c r="I13">
+        <v>2.935146175306156E+67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>8.183104743326499E+66</v>
+      </c>
+      <c r="D14">
+        <v>1.258131795400925E+34</v>
+      </c>
+      <c r="E14">
+        <v>4.825297306669846E+34</v>
+      </c>
+      <c r="F14">
+        <v>1.258131795400925E+34</v>
+      </c>
+      <c r="G14">
+        <v>4.825297306669846E+34</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2164,22 +3601,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2193,27 +3630,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.4069</v>
+        <v>-6.864126695163399E+49</v>
       </c>
       <c r="E2">
-        <v>0.3419</v>
+        <v>-2.432991051834373E+49</v>
       </c>
       <c r="F2">
-        <v>-0.4069</v>
+        <v>6.864126695163399E+49</v>
       </c>
       <c r="G2">
-        <v>-0.3137</v>
+        <v>5.291541843094514E+98</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0282</v>
+        <v>5.291541843094514E+98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2222,27 +3659,27 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.4069</v>
+        <v>-6.864126695163399E+49</v>
       </c>
       <c r="E3">
-        <v>0.3419</v>
+        <v>-2.432991051834373E+49</v>
       </c>
       <c r="F3">
-        <v>-0.4069</v>
+        <v>6.864126695163399E+49</v>
       </c>
       <c r="G3">
-        <v>-0.3137</v>
+        <v>5.291541843094514E+98</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0282</v>
+        <v>5.291541843094514E+98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2251,27 +3688,27 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.4069</v>
+        <v>-6.864126695163399E+49</v>
       </c>
       <c r="E4">
-        <v>0.3419</v>
+        <v>-2.432991051834373E+49</v>
       </c>
       <c r="F4">
-        <v>-0.4069</v>
+        <v>6.864126695163399E+49</v>
       </c>
       <c r="G4">
-        <v>-0.3137</v>
+        <v>5.291541843094514E+98</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0282</v>
+        <v>5.291541843094514E+98</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2280,27 +3717,27 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.4069</v>
+        <v>-6.864126695163399E+49</v>
       </c>
       <c r="E5">
-        <v>0.3419</v>
+        <v>-2.432991051834373E+49</v>
       </c>
       <c r="F5">
-        <v>-0.4069</v>
+        <v>6.864126695163399E+49</v>
       </c>
       <c r="G5">
-        <v>-0.3137</v>
+        <v>5.291541843094514E+98</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0282</v>
+        <v>5.291541843094514E+98</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2309,22 +3746,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.4069</v>
+        <v>-6.864126695163399E+49</v>
       </c>
       <c r="E6">
-        <v>0.3419</v>
+        <v>-2.432991051834373E+49</v>
       </c>
       <c r="F6">
-        <v>-0.4069</v>
+        <v>6.864126695163399E+49</v>
       </c>
       <c r="G6">
-        <v>-0.3137</v>
+        <v>5.291541843094514E+98</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0282</v>
+        <v>5.291541843094514E+98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2338,22 +3775,22 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1.1915</v>
+        <v>-2.091198656612374E+116</v>
       </c>
       <c r="E7">
-        <v>0.9196</v>
+        <v>2.341341607753093E+116</v>
       </c>
       <c r="F7">
-        <v>-1.1894</v>
+        <v>1.613731336457014E+132</v>
       </c>
       <c r="G7">
-        <v>-0.892</v>
+        <v>2.131183548606177E+133</v>
       </c>
       <c r="H7">
-        <v>0.002099999999999991</v>
+        <v>1.613731336457014E+132</v>
       </c>
       <c r="I7">
-        <v>0.02759999999999996</v>
+        <v>2.131183548606177E+133</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2367,22 +3804,22 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.4216</v>
+        <v>2.963776493085322E+117</v>
       </c>
       <c r="E8">
-        <v>0.324</v>
+        <v>-5.159930245435747E+117</v>
       </c>
       <c r="F8">
-        <v>-0.4202</v>
+        <v>3.13098176508984E+135</v>
       </c>
       <c r="G8">
-        <v>-0.3053</v>
+        <v>4.13494903271537E+136</v>
       </c>
       <c r="H8">
-        <v>0.001399999999999957</v>
+        <v>3.13098176508984E+135</v>
       </c>
       <c r="I8">
-        <v>0.01869999999999999</v>
+        <v>4.13494903271537E+136</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2396,27 +3833,27 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0.4216</v>
+        <v>2.963776493085322E+117</v>
       </c>
       <c r="E9">
-        <v>0.324</v>
+        <v>-5.159930245435747E+117</v>
       </c>
       <c r="F9">
-        <v>-0.4202</v>
+        <v>3.13098176508984E+135</v>
       </c>
       <c r="G9">
-        <v>-0.3053</v>
+        <v>4.13494903271537E+136</v>
       </c>
       <c r="H9">
-        <v>0.001399999999999957</v>
+        <v>3.13098176508984E+135</v>
       </c>
       <c r="I9">
-        <v>0.01869999999999999</v>
+        <v>4.13494903271537E+136</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2425,27 +3862,27 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.2863</v>
+        <v>1.919883250472872E+135</v>
       </c>
       <c r="E10">
-        <v>0.2073</v>
+        <v>3.965455888648578E+136</v>
       </c>
       <c r="F10">
-        <v>-0.2863</v>
+        <v>-1.919883250472872E+135</v>
       </c>
       <c r="G10">
-        <v>-0.1948</v>
+        <v>1.523869204521608E+136</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01250000000000001</v>
+        <v>5.489325093170185E+136</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2454,27 +3891,27 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.2863</v>
+        <v>1.919883250472872E+135</v>
       </c>
       <c r="E11">
-        <v>0.2073</v>
+        <v>3.965455888648578E+136</v>
       </c>
       <c r="F11">
-        <v>-0.2863</v>
+        <v>-1.919883250472872E+135</v>
       </c>
       <c r="G11">
-        <v>-0.1948</v>
+        <v>1.523869204521608E+136</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01250000000000001</v>
+        <v>5.489325093170185E+136</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2483,27 +3920,27 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.2863</v>
+        <v>1.919883250472872E+135</v>
       </c>
       <c r="E12">
-        <v>0.2073</v>
+        <v>3.965455888648578E+136</v>
       </c>
       <c r="F12">
-        <v>-0.2863</v>
+        <v>-1.919883250472872E+135</v>
       </c>
       <c r="G12">
-        <v>-0.1948</v>
+        <v>1.523869204521608E+136</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01250000000000001</v>
+        <v>5.489325093170185E+136</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -2512,27 +3949,27 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1.0005</v>
+        <v>1.755122956588302E+68</v>
       </c>
       <c r="E13">
-        <v>-0.3994</v>
+        <v>4.055655697355217E+135</v>
       </c>
       <c r="F13">
-        <v>1.0005</v>
+        <v>-1.755122956588302E+68</v>
       </c>
       <c r="G13">
-        <v>0.5276999999999999</v>
+        <v>-9.820452058168836E+67</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1283</v>
+        <v>4.055655697355217E+135</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2541,22 +3978,457 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-1.0005</v>
+        <v>1.755122956588302E+68</v>
       </c>
       <c r="E14">
-        <v>-0.3994</v>
+        <v>4.055655697355217E+135</v>
       </c>
       <c r="F14">
-        <v>1.0005</v>
+        <v>-1.755122956588302E+68</v>
       </c>
       <c r="G14">
-        <v>0.5276999999999999</v>
+        <v>-9.820452058168836E+67</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1283</v>
+        <v>4.055655697355217E+135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1.336698111747763E+99</v>
+      </c>
+      <c r="E15">
+        <v>1.305435426429269E+99</v>
+      </c>
+      <c r="F15">
+        <v>-1.280125738676523E+99</v>
+      </c>
+      <c r="G15">
+        <v>9.968458995887685E+96</v>
+      </c>
+      <c r="H15">
+        <v>5.657237307123986E+97</v>
+      </c>
+      <c r="I15">
+        <v>1.315403885425157E+99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>1.336698111747763E+99</v>
+      </c>
+      <c r="E16">
+        <v>1.305435426429269E+99</v>
+      </c>
+      <c r="F16">
+        <v>-1.280125738676523E+99</v>
+      </c>
+      <c r="G16">
+        <v>9.968458995887685E+96</v>
+      </c>
+      <c r="H16">
+        <v>5.657237307123986E+97</v>
+      </c>
+      <c r="I16">
+        <v>1.315403885425157E+99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-1.180335483871154E+99</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.65939937936483E+99</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4.790638954936759E+98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-1.180335483871154E+99</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.65939937936483E+99</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4.790638954936759E+98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>-1.964556128802463E+98</v>
+      </c>
+      <c r="E19">
+        <v>6.681480794897379E+98</v>
+      </c>
+      <c r="F19">
+        <v>2.131984658345843E+98</v>
+      </c>
+      <c r="G19">
+        <v>-2.788482740616612E+98</v>
+      </c>
+      <c r="H19">
+        <v>1.674285295433801E+97</v>
+      </c>
+      <c r="I19">
+        <v>3.892998054280767E+98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>-1.964556128802463E+98</v>
+      </c>
+      <c r="E20">
+        <v>6.681480794897379E+98</v>
+      </c>
+      <c r="F20">
+        <v>2.131984658345843E+98</v>
+      </c>
+      <c r="G20">
+        <v>-2.788482740616612E+98</v>
+      </c>
+      <c r="H20">
+        <v>1.674285295433801E+97</v>
+      </c>
+      <c r="I20">
+        <v>3.892998054280767E+98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1.418360135617862E+97</v>
+      </c>
+      <c r="E21">
+        <v>3.297928533021751E+98</v>
+      </c>
+      <c r="F21">
+        <v>3.933172506825416E+83</v>
+      </c>
+      <c r="G21">
+        <v>6.146078992361422E+83</v>
+      </c>
+      <c r="H21">
+        <v>1.418360135617901E+97</v>
+      </c>
+      <c r="I21">
+        <v>3.297928533021757E+98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1.418360135617862E+97</v>
+      </c>
+      <c r="E22">
+        <v>3.297928533021751E+98</v>
+      </c>
+      <c r="F22">
+        <v>3.933172506825416E+83</v>
+      </c>
+      <c r="G22">
+        <v>6.146078992361422E+83</v>
+      </c>
+      <c r="H22">
+        <v>1.418360135617901E+97</v>
+      </c>
+      <c r="I22">
+        <v>3.297928533021757E+98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>-7.450060172801089E+68</v>
+      </c>
+      <c r="E23">
+        <v>1.441165522983541E+69</v>
+      </c>
+      <c r="F23">
+        <v>7.450060172801089E+68</v>
+      </c>
+      <c r="G23">
+        <v>1.686492131913656E+69</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3.127657654897197E+69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>-7.450060172801089E+68</v>
+      </c>
+      <c r="E24">
+        <v>1.441165522983541E+69</v>
+      </c>
+      <c r="F24">
+        <v>7.450060172801089E+68</v>
+      </c>
+      <c r="G24">
+        <v>1.686492131913656E+69</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>3.127657654897197E+69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>-7.450060172801089E+68</v>
+      </c>
+      <c r="E25">
+        <v>1.441165522983541E+69</v>
+      </c>
+      <c r="F25">
+        <v>7.450060172801089E+68</v>
+      </c>
+      <c r="G25">
+        <v>1.686492131913656E+69</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3.127657654897197E+69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>-7.450060172801089E+68</v>
+      </c>
+      <c r="E26">
+        <v>1.441165522983541E+69</v>
+      </c>
+      <c r="F26">
+        <v>7.450060172801089E+68</v>
+      </c>
+      <c r="G26">
+        <v>1.686492131913656E+69</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3.127657654897197E+69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>-7.450060172801089E+68</v>
+      </c>
+      <c r="E27">
+        <v>1.441165522983541E+69</v>
+      </c>
+      <c r="F27">
+        <v>7.450060172801089E+68</v>
+      </c>
+      <c r="G27">
+        <v>1.686492131913656E+69</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3.127657654897197E+69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>-6.290658977004625E+33</v>
+      </c>
+      <c r="E28">
+        <v>9.088665439865396E+67</v>
+      </c>
+      <c r="F28">
+        <v>6.290658977004625E+33</v>
+      </c>
+      <c r="G28">
+        <v>2.412648653334923E+34</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>9.088665439865396E+67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>-6.290658977004625E+33</v>
+      </c>
+      <c r="E29">
+        <v>9.088665439865396E+67</v>
+      </c>
+      <c r="F29">
+        <v>6.290658977004625E+33</v>
+      </c>
+      <c r="G29">
+        <v>2.412648653334923E+34</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>9.088665439865396E+67</v>
       </c>
     </row>
   </sheetData>
